--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>432330.5822995034</v>
+        <v>430143.9119030416</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937635</v>
+        <v>16636980.42967734</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129929</v>
+        <v>2069122.084925926</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6696246.01947904</v>
+        <v>7350773.693631954</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>331.3221969943197</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,7 +673,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -722,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>30.37416046742495</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>35.75633396116289</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -829,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>73.01514676193496</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>185.1447535886774</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>120.1222067597276</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1066,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.13954148002296</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1139,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>94.1558598484922</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>76.35110097899425</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1306,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>295.8651815408529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>66.8694951168697</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1537,13 +1539,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>54.49360828358961</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1622,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>119.7095852805962</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1774,13 +1776,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481251</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>305.1364706193652</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2056,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.4289457920829</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2093,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>29.10461178738926</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,10 +2481,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>102.8562685532374</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>136.0564930766996</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2810,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>43.4889870101585</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3433,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.14416275345451</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3503,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3673,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.16791248334739</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>10.0402736571996</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.6664774961569</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="C2" t="n">
-        <v>882.6664774961569</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="D2" t="n">
-        <v>882.6664774961569</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="E2" t="n">
-        <v>882.6664774961569</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F2" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
         <v>53.40121652862857</v>
@@ -4334,16 +4336,16 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1954.407975719777</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719777</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.119422805321</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739147</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.647018150181</v>
+        <v>1643.366119093305</v>
       </c>
       <c r="X2" t="n">
-        <v>1308.966047981065</v>
+        <v>1224.223655672616</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.966047981065</v>
+        <v>815.9375319722691</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C4" t="n">
-        <v>705.359723599933</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862855</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1316.441222337862</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C5" t="n">
-        <v>1316.441222337862</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.441222337862</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E5" t="n">
-        <v>882.6664774961569</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>518.3865980530361</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1179.226652594814</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1840.066707136593</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>2500.906761678371</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>2500.906761678371</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V5" t="n">
-        <v>2548.725264047865</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W5" t="n">
-        <v>2143.869809458898</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X5" t="n">
-        <v>1724.727346038208</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="Y5" t="n">
-        <v>1316.441222337862</v>
+        <v>931.3608944498341</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4640,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1375.081325612185</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2795245870976</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F7" t="n">
-        <v>56.57247054885377</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862856</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>892.9415207219413</v>
+        <v>1416.332668825485</v>
       </c>
       <c r="C8" t="n">
-        <v>454.7990479053647</v>
+        <v>978.1901960089081</v>
       </c>
       <c r="D8" t="n">
-        <v>454.7990479053647</v>
+        <v>978.1901960089081</v>
       </c>
       <c r="E8" t="n">
-        <v>454.7990479053647</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2223.792002549091</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2146.669678327885</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X8" t="n">
-        <v>1727.527214907196</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y8" t="n">
-        <v>1319.241091206849</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4884,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4987,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1075.159834655251</v>
+        <v>2275.641388304938</v>
       </c>
       <c r="C11" t="n">
-        <v>1075.159834655251</v>
+        <v>1837.498915488361</v>
       </c>
       <c r="D11" t="n">
-        <v>1075.159834655251</v>
+        <v>1401.589130662805</v>
       </c>
       <c r="E11" t="n">
-        <v>641.3850898135465</v>
+        <v>967.8143858211006</v>
       </c>
       <c r="F11" t="n">
-        <v>342.5313710854123</v>
+        <v>539.9469562303084</v>
       </c>
       <c r="G11" t="n">
-        <v>342.5313710854123</v>
+        <v>138.5491248535723</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862856</v>
+        <v>71.00418029107762</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821762</v>
       </c>
       <c r="J11" t="n">
-        <v>488.6559039815464</v>
+        <v>505.8420783711355</v>
       </c>
       <c r="K11" t="n">
-        <v>1149.495958523325</v>
+        <v>505.8420783711355</v>
       </c>
       <c r="L11" t="n">
-        <v>1149.495958523325</v>
+        <v>1379.361040984078</v>
       </c>
       <c r="M11" t="n">
-        <v>1149.495958523325</v>
+        <v>2252.880003597022</v>
       </c>
       <c r="N11" t="n">
-        <v>1149.495958523325</v>
+        <v>3126.398966209965</v>
       </c>
       <c r="O11" t="n">
-        <v>1810.336013065103</v>
+        <v>3529.369545910881</v>
       </c>
       <c r="P11" t="n">
-        <v>2123.562040472833</v>
+        <v>3529.369545910881</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910881</v>
       </c>
       <c r="R11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910881</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910881</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910881</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910881</v>
       </c>
       <c r="V11" t="n">
-        <v>2307.443876365254</v>
+        <v>3529.369545910881</v>
       </c>
       <c r="W11" t="n">
-        <v>1902.588421776288</v>
+        <v>3529.369545910881</v>
       </c>
       <c r="X11" t="n">
-        <v>1483.445958355598</v>
+        <v>3110.227082490192</v>
       </c>
       <c r="Y11" t="n">
-        <v>1075.159834655251</v>
+        <v>2701.940958789845</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>559.5729615199214</v>
+        <v>576.7591359095104</v>
       </c>
       <c r="C12" t="n">
-        <v>453.1165003565636</v>
+        <v>470.3026747461527</v>
       </c>
       <c r="D12" t="n">
-        <v>358.0262115031169</v>
+        <v>375.212385892706</v>
       </c>
       <c r="E12" t="n">
-        <v>263.9057968300706</v>
+        <v>281.0919712196597</v>
       </c>
       <c r="F12" t="n">
-        <v>180.5219584462322</v>
+        <v>197.7081328358213</v>
       </c>
       <c r="G12" t="n">
-        <v>95.13686871241609</v>
+        <v>112.3230431020052</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821762</v>
       </c>
       <c r="I12" t="n">
-        <v>79.46488968908616</v>
+        <v>96.65106407867522</v>
       </c>
       <c r="J12" t="n">
-        <v>404.0232146552985</v>
+        <v>421.2093890448875</v>
       </c>
       <c r="K12" t="n">
-        <v>1064.863269197077</v>
+        <v>743.1354116897437</v>
       </c>
       <c r="L12" t="n">
-        <v>1064.863269197077</v>
+        <v>743.1354116897437</v>
       </c>
       <c r="M12" t="n">
-        <v>1064.863269197077</v>
+        <v>1616.654374302687</v>
       </c>
       <c r="N12" t="n">
-        <v>1064.863269197077</v>
+        <v>1616.654374302687</v>
       </c>
       <c r="O12" t="n">
-        <v>1175.902039375362</v>
+        <v>1616.654374302687</v>
       </c>
       <c r="P12" t="n">
-        <v>1175.902039375362</v>
+        <v>1616.654374302687</v>
       </c>
       <c r="Q12" t="n">
-        <v>1716.640978007438</v>
+        <v>1616.654374302687</v>
       </c>
       <c r="R12" t="n">
-        <v>1716.640978007438</v>
+        <v>1733.827152397027</v>
       </c>
       <c r="S12" t="n">
-        <v>1653.185540455821</v>
+        <v>1670.37171484541</v>
       </c>
       <c r="T12" t="n">
-        <v>1523.006896786422</v>
+        <v>1540.193071176011</v>
       </c>
       <c r="U12" t="n">
-        <v>1346.67034978639</v>
+        <v>1363.85652417598</v>
       </c>
       <c r="V12" t="n">
-        <v>1147.55283184839</v>
+        <v>1164.739006237979</v>
       </c>
       <c r="W12" t="n">
-        <v>962.2300775815838</v>
+        <v>979.4162519711729</v>
       </c>
       <c r="X12" t="n">
-        <v>807.3626418204638</v>
+        <v>824.5488162100528</v>
       </c>
       <c r="Y12" t="n">
-        <v>680.8768625996845</v>
+        <v>698.0630369892735</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.4772326516127</v>
+        <v>884.2785482665306</v>
       </c>
       <c r="C13" t="n">
-        <v>568.9155211348376</v>
+        <v>711.7168367497555</v>
       </c>
       <c r="D13" t="n">
-        <v>403.0375283363603</v>
+        <v>545.8388439512782</v>
       </c>
       <c r="E13" t="n">
-        <v>233.2795245870976</v>
+        <v>376.0808402020155</v>
       </c>
       <c r="F13" t="n">
-        <v>56.57247054885377</v>
+        <v>376.0808402020155</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862856</v>
+        <v>210.4895652278431</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821762</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821762</v>
       </c>
       <c r="J13" t="n">
-        <v>139.9809016933184</v>
+        <v>157.1670760829075</v>
       </c>
       <c r="K13" t="n">
-        <v>414.739356264454</v>
+        <v>431.925530654043</v>
       </c>
       <c r="L13" t="n">
-        <v>832.9492380324151</v>
+        <v>850.135412422004</v>
       </c>
       <c r="M13" t="n">
-        <v>1292.433105213328</v>
+        <v>1309.619279602917</v>
       </c>
       <c r="N13" t="n">
-        <v>1734.691908370973</v>
+        <v>1751.878082760562</v>
       </c>
       <c r="O13" t="n">
-        <v>2154.361157596754</v>
+        <v>2171.547331986343</v>
       </c>
       <c r="P13" t="n">
-        <v>2501.868051567096</v>
+        <v>2519.054225956685</v>
       </c>
       <c r="Q13" t="n">
-        <v>2670.060826431428</v>
+        <v>2687.247000821017</v>
       </c>
       <c r="R13" t="n">
-        <v>2648.6430051368</v>
+        <v>2687.247000821017</v>
       </c>
       <c r="S13" t="n">
-        <v>2489.401636434797</v>
+        <v>2632.202952049714</v>
       </c>
       <c r="T13" t="n">
-        <v>2243.522190013252</v>
+        <v>2386.32350562817</v>
       </c>
       <c r="U13" t="n">
-        <v>1965.089189266357</v>
+        <v>2107.890504881275</v>
       </c>
       <c r="V13" t="n">
-        <v>1678.133681136788</v>
+        <v>1820.934996751706</v>
       </c>
       <c r="W13" t="n">
-        <v>1406.107276723079</v>
+        <v>1548.908592337997</v>
       </c>
       <c r="X13" t="n">
-        <v>1160.715522056492</v>
+        <v>1303.51683767141</v>
       </c>
       <c r="Y13" t="n">
-        <v>933.2958513705998</v>
+        <v>1076.097166985518</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1316.858011710722</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1316.858011710722</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1316.858011710722</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>883.0832668690169</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>455.2158372782247</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>53.81800590148855</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148855</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>488.6559039815464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>801.8819313892766</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>801.8819313892766</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>801.8819313892766</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>801.8819313892766</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1462.721985931055</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2123.562040472833</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2670.060826431428</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2549.142053420725</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2144.286598831758</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>1725.144135411068</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1316.858011710722</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>79.46488968908616</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>404.0232146552985</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1132.45937714051</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>959.897665623735</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>794.0196728252577</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E16" t="n">
-        <v>624.2616690759949</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F16" t="n">
-        <v>447.554615037751</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G16" t="n">
-        <v>281.9633400635787</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0611657539532</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2670.060826431428</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2670.060826431428</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2424.181380009883</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2356.071333755254</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>2069.115825625685</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1797.089421211977</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1551.697666545389</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1324.277995859497</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1171.796632052941</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1171.796632052941</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1171.796632052941</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1171.796632052941</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>743.9292024621484</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>342.5313710854123</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862856</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>53.40121652862856</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>53.40121652862856</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>53.40121652862856</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>632.7278666362198</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>1293.567921177998</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719776</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678371</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>2307.443876365254</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>1999.225219173976</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>1580.082755753287</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>1171.796632052941</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862856</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862856</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>714.2412710704069</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1375.081325612185</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1375.081325612185</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1375.081325612185</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1375.081325612185</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1716.640978007438</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1716.640978007438</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1132.45937714051</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>959.897665623735</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>794.0196728252577</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>624.2616690759949</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>447.554615037751</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>281.9633400635787</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>142.0611657539532</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2356.071333755254</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>2069.115825625685</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1797.089421211977</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1551.697666545389</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1324.277995859497</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5759,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5837,22 @@
         <v>1107.552685307369</v>
       </c>
       <c r="L21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>982.1554751127505</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>809.5937635959755</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>643.7157707974982</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>473.9577670482354</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>297.2507130099916</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>131.6594380358193</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>845.683004334921</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>673.1212928181459</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2593.607408118105</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2347.72796169656</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2069.294960949665</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1782.339452820096</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1510.313048406387</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1264.9212937398</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1037.501623053908</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>537.5155277236975</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>1694.563362934248</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2820.294346370695</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1090.187678435286</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>917.6259669185112</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>751.7479741200339</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>581.9899703707711</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>405.2829163325273</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>239.691641358355</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2313.799635050031</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>2026.844126920461</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1754.817722506753</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1509.425967840165</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1282.006297154273</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6482,31 +6484,31 @@
         <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>3800.424250186843</v>
       </c>
       <c r="K30" t="n">
-        <v>3800.424250186843</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L30" t="n">
-        <v>3800.424250186843</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M30" t="n">
-        <v>3800.424250186843</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N30" t="n">
-        <v>3800.424250186843</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O30" t="n">
-        <v>3800.424250186843</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P30" t="n">
         <v>4455.130296812566</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>927.0677766831641</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C31" t="n">
-        <v>754.506065166389</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D31" t="n">
-        <v>588.6280723679117</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E31" t="n">
-        <v>418.8700686186489</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F31" t="n">
-        <v>242.1630145804051</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2674.992180466348</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T31" t="n">
-        <v>2429.112734044803</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U31" t="n">
-        <v>2150.679733297909</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V31" t="n">
-        <v>1863.724225168339</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W31" t="n">
-        <v>1591.697820754631</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X31" t="n">
-        <v>1346.306066088043</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y31" t="n">
-        <v>1118.886395402151</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,7 +6946,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3184.458419759167</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>3011.896708242392</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>2846.018715443915</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>2676.260711694652</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>2661.973678610354</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636182</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>4932.38282354235</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>4686.503377120805</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>4408.070376373911</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>4121.114868244342</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>3849.088463830633</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>3603.696709164046</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.277038478154</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
@@ -7184,40 +7186,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="41">
@@ -7409,31 +7411,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>238.0943787136899</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1072.444670671868</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2147.504636924727</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
         <v>5029.390139722817</v>
@@ -7448,13 +7450,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>105.4320942910045</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.095648603258</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C44" t="n">
-        <v>1350.953175786681</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>915.0433909611256</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>481.2686461194208</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>53.40121652862856</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>488.6559039815464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>1149.495958523325</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L44" t="n">
-        <v>1810.336013065103</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M44" t="n">
-        <v>1810.336013065103</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N44" t="n">
-        <v>1810.336013065103</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O44" t="n">
-        <v>2123.562040472833</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P44" t="n">
-        <v>2123.562040472833</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U44" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W44" t="n">
-        <v>2670.060826431428</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2250.918363010739</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y44" t="n">
-        <v>2215.395219088166</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>559.5729615199214</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C45" t="n">
-        <v>453.1165003565636</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D45" t="n">
-        <v>358.0262115031169</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E45" t="n">
-        <v>263.9057968300706</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F45" t="n">
-        <v>180.5219584462322</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G45" t="n">
-        <v>95.13686871241609</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862856</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I45" t="n">
-        <v>79.46488968908616</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J45" t="n">
-        <v>404.0232146552985</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K45" t="n">
-        <v>1058.729261281022</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.729261281022</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M45" t="n">
-        <v>1058.729261281022</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N45" t="n">
-        <v>1058.729261281022</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O45" t="n">
-        <v>1058.729261281022</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P45" t="n">
-        <v>1058.729261281022</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q45" t="n">
-        <v>1599.468199913098</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R45" t="n">
-        <v>1716.640978007438</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S45" t="n">
-        <v>1653.185540455821</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.006896786422</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U45" t="n">
-        <v>1346.67034978639</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V45" t="n">
-        <v>1147.55283184839</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W45" t="n">
-        <v>962.2300775815838</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X45" t="n">
-        <v>807.3626418204638</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8768625996845</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.4772326516127</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C46" t="n">
-        <v>731.3355420887848</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D46" t="n">
-        <v>565.4575492903075</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E46" t="n">
-        <v>395.6995455410447</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F46" t="n">
-        <v>218.9924915028009</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862856</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862856</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2489.401636434797</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.522190013252</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.089189266357</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V46" t="n">
-        <v>1678.133681136788</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W46" t="n">
-        <v>1406.107276723079</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X46" t="n">
-        <v>1160.715522056492</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y46" t="n">
-        <v>933.2958513705998</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7984,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>667.5152066078572</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261585</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>882.3423864777203</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>882.3423864777203</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>882.3423864777205</v>
       </c>
       <c r="O11" t="n">
-        <v>667.515206607857</v>
+        <v>407.0409895968851</v>
       </c>
       <c r="P11" t="n">
-        <v>316.389926674475</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8769,28 +8771,28 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.515206607857</v>
+        <v>325.1778006513699</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>882.3423864777203</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>112.1603739174598</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>316.389926674475</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>585.1784344521124</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>345.0097498941943</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9483,7 +9485,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>664.5938549921407</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9887,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>756.3484258820586</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10592,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>433.7499898166688</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>137.205594386778</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,10 +11068,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,10 +11080,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L44" t="n">
-        <v>667.515206607857</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>316.389926674475</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>90.71437778573898</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -22559,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22595,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>384.5768783190575</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,10 +22707,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>135.0797604404444</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>65.48800580459427</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>236.8918211913812</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22790,19 +22792,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>238.8685738057841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22954,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444076</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>114.1599680048245</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23027,10 +23029,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>335.2811375447956</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -23078,10 +23080,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>324.4557990640827</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23194,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,13 +23229,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>127.7235737540314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>219.3693578943462</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23317,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>239.2811952849155</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.63380825304883</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>95.67042942371182</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473428</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>109.39854077914</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>54.7926864617459</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.446659489829642</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,13 +24651,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>114.1599680048248</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>160.7958207444068</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>369.0353499799957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457073.1573044831</v>
+        <v>546763.7583701836</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457073.1573044831</v>
+        <v>712060.0393142544</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457073.1573044831</v>
+        <v>712060.0393142544</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712060.0393142544</v>
+        <v>712060.0393142543</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712060.0393142543</v>
+        <v>712060.0393142544</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712060.0393142545</v>
+        <v>712060.0393142543</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712060.0393142544</v>
+        <v>712060.0393142543</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457073.1573044831</v>
+        <v>712060.0393142544</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>160640.833517505</v>
       </c>
       <c r="C2" t="n">
-        <v>160640.8335175049</v>
+        <v>160640.833517505</v>
       </c>
       <c r="D2" t="n">
         <v>160640.833517505</v>
       </c>
       <c r="E2" t="n">
-        <v>160640.8335175049</v>
+        <v>192163.0804130543</v>
       </c>
       <c r="F2" t="n">
-        <v>160640.833517505</v>
+        <v>250257.3524652424</v>
       </c>
       <c r="G2" t="n">
-        <v>160640.833517505</v>
+        <v>250257.3524652424</v>
       </c>
       <c r="H2" t="n">
         <v>250257.3524652424</v>
       </c>
       <c r="I2" t="n">
-        <v>250257.3524652423</v>
+        <v>250257.3524652424</v>
       </c>
       <c r="J2" t="n">
         <v>250257.3524652424</v>
@@ -26353,7 +26355,7 @@
         <v>250257.3524652424</v>
       </c>
       <c r="P2" t="n">
-        <v>160640.833517505</v>
+        <v>250257.3524652424</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>64142.66971118403</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>113440.8343649023</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>53535.7925322894</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>96971.03661968691</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,16 +26426,16 @@
         <v>26396.92784106698</v>
       </c>
       <c r="E4" t="n">
-        <v>26396.92784106698</v>
+        <v>31576.74705931972</v>
       </c>
       <c r="F4" t="n">
-        <v>26396.92784106698</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="G4" t="n">
-        <v>26396.92784106698</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26442,22 +26444,22 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="L4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>26396.92784106698</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.9245617577</v>
+        <v>53646.41709784539</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26511,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-163668.3174693646</v>
       </c>
       <c r="C6" t="n">
-        <v>60031.38111468025</v>
+        <v>60031.38111468031</v>
       </c>
       <c r="D6" t="n">
         <v>60031.38111468031</v>
       </c>
       <c r="E6" t="n">
-        <v>93658.98111468024</v>
+        <v>42797.24654470515</v>
       </c>
       <c r="F6" t="n">
-        <v>93658.9811146803</v>
+        <v>17975.32756463485</v>
       </c>
       <c r="G6" t="n">
-        <v>93658.9811146803</v>
+        <v>131416.1619295371</v>
       </c>
       <c r="H6" t="n">
-        <v>-33368.41584853837</v>
+        <v>131416.1619295371</v>
       </c>
       <c r="I6" t="n">
         <v>131416.1619295371</v>
       </c>
       <c r="J6" t="n">
-        <v>-43235.18678816904</v>
+        <v>-43235.18678816906</v>
       </c>
       <c r="K6" t="n">
-        <v>131416.1619295372</v>
+        <v>131416.1619295371</v>
       </c>
       <c r="L6" t="n">
         <v>131416.1619295371</v>
       </c>
       <c r="M6" t="n">
-        <v>131416.1619295371</v>
+        <v>77880.36939724773</v>
       </c>
       <c r="N6" t="n">
-        <v>131416.1619295372</v>
+        <v>34445.12530985022</v>
       </c>
       <c r="O6" t="n">
         <v>131416.1619295371</v>
       </c>
       <c r="P6" t="n">
-        <v>93658.9811146803</v>
+        <v>131416.1619295371</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26792,19 @@
         <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>667.515206607857</v>
+        <v>882.3423864777203</v>
       </c>
       <c r="F4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27018,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>214.8271798698632</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>395.918116907025</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>214.8271798698632</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>395.918116907025</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>214.8271798698632</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>395.918116907025</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34702,19 +34704,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>667.5152066078572</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34869,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261585</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,25 +35412,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>882.3423864777203</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>882.3423864777203</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>882.3423864777205</v>
       </c>
       <c r="O11" t="n">
-        <v>667.515206607857</v>
+        <v>407.0409895968851</v>
       </c>
       <c r="P11" t="n">
-        <v>316.389926674475</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.515206607857</v>
+        <v>325.1778006513699</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>882.3423864777203</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>112.1603739174598</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>316.389926674475</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>585.1784344521124</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>345.0097498941943</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36203,7 +36205,7 @@
         <v>687.6096162327043</v>
       </c>
       <c r="L21" t="n">
-        <v>664.5938549921407</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>756.3484258820586</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132072</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37312,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>433.7499898166688</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>137.205594386778</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37798,10 +37800,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L44" t="n">
-        <v>667.515206607857</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>316.389926674475</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>430143.9119030416</v>
+        <v>428021.7727819864</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16636980.42967734</v>
+        <v>16636980.42967733</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2069122.084925926</v>
+        <v>2069122.084925924</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7350773.693631954</v>
+        <v>7350773.693631955</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>331.3221969943197</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>35.16791248334739</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +825,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904381</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>73.01514676193496</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>185.1447535886774</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>65.91169941757049</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>137.247051021543</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>24.34318456170476</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>94.1558598484922</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>120.5829404705698</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>119.851861807721</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>66.8694951168697</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>54.49360828358961</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1666,7 +1666,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>90.30617524481251</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>173.7040795765152</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>481.2686461194209</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C2" t="n">
-        <v>481.2686461194209</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D2" t="n">
-        <v>481.2686461194209</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E2" t="n">
-        <v>481.2686461194209</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4348,10 +4348,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682272</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>1643.366119093305</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>1224.223655672616</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y2" t="n">
-        <v>815.9375319722691</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
         <v>79.46488968908616</v>
@@ -4412,19 +4412,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>900.7186013536161</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1568898368411</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D4" t="n">
-        <v>562.2788970383638</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E4" t="n">
-        <v>392.520893289101</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>215.8138392508572</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>215.8138392508572</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2402.763558715255</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>2124.330557968361</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.375049838791</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1565.348645425083</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1319.956890758495</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>1092.537220072603</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>744.3459918350084</v>
+        <v>1419.763337936864</v>
       </c>
       <c r="C5" t="n">
-        <v>744.3459918350084</v>
+        <v>981.6208651202878</v>
       </c>
       <c r="D5" t="n">
-        <v>744.3459918350084</v>
+        <v>981.6208651202878</v>
       </c>
       <c r="E5" t="n">
-        <v>744.3459918350084</v>
+        <v>547.8461202785829</v>
       </c>
       <c r="F5" t="n">
-        <v>744.3459918350084</v>
+        <v>119.9786906877907</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4585,34 +4585,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.119422805321</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739147</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.647018150181</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1339.647018150181</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>931.3608944498341</v>
+        <v>1846.062908421772</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762.8950539462408</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C7" t="n">
-        <v>590.3333424294657</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="D7" t="n">
-        <v>424.4553496309884</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="E7" t="n">
-        <v>254.6973458817257</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>77.99029184348186</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>77.99029184348186</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4752,7 +4752,7 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
         <v>2264.94001130788</v>
@@ -4761,16 +4761,16 @@
         <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431416</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W7" t="n">
         <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.13334335112</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.7136726652279</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1416.332668825485</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="C8" t="n">
-        <v>978.1901960089081</v>
+        <v>1045.303485539021</v>
       </c>
       <c r="D8" t="n">
-        <v>978.1901960089081</v>
+        <v>609.3937007134659</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>175.6189558717611</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>175.6189558717611</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148856</v>
+        <v>175.6189558717611</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4840,16 +4840,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>2670.060826431428</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>2250.918363010739</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y8" t="n">
-        <v>1842.632239310392</v>
+        <v>1483.445958355598</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4886,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>903.8972536055599</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C10" t="n">
-        <v>731.3355420887848</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D10" t="n">
-        <v>565.4575492903075</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E10" t="n">
-        <v>395.6995455410447</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F10" t="n">
-        <v>218.9924915028009</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2651.821657388744</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2405.942210967199</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>2127.509210220304</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1840.553702090735</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>1568.527297677026</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>1323.135543010439</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>1095.715872324547</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2275.641388304938</v>
+        <v>2497.226598299227</v>
       </c>
       <c r="C11" t="n">
-        <v>1837.498915488361</v>
+        <v>2059.08412548265</v>
       </c>
       <c r="D11" t="n">
-        <v>1401.589130662805</v>
+        <v>1623.174340657095</v>
       </c>
       <c r="E11" t="n">
-        <v>967.8143858211006</v>
+        <v>1189.39959581539</v>
       </c>
       <c r="F11" t="n">
-        <v>539.9469562303084</v>
+        <v>761.5321662245976</v>
       </c>
       <c r="G11" t="n">
-        <v>138.5491248535723</v>
+        <v>360.1343348478616</v>
       </c>
       <c r="H11" t="n">
-        <v>71.00418029107762</v>
+        <v>71.00418029107782</v>
       </c>
       <c r="I11" t="n">
-        <v>70.58739091821762</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="J11" t="n">
-        <v>505.8420783711355</v>
+        <v>505.8420783711357</v>
       </c>
       <c r="K11" t="n">
-        <v>505.8420783711355</v>
+        <v>1340.192370329314</v>
       </c>
       <c r="L11" t="n">
-        <v>1379.361040984078</v>
+        <v>1340.192370329314</v>
       </c>
       <c r="M11" t="n">
-        <v>2252.880003597022</v>
+        <v>1340.192370329314</v>
       </c>
       <c r="N11" t="n">
-        <v>3126.398966209965</v>
+        <v>1340.192370329314</v>
       </c>
       <c r="O11" t="n">
-        <v>3529.369545910881</v>
+        <v>2154.5608851189</v>
       </c>
       <c r="P11" t="n">
-        <v>3529.369545910881</v>
+        <v>2982.870759952297</v>
       </c>
       <c r="Q11" t="n">
-        <v>3529.369545910881</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="R11" t="n">
-        <v>3529.369545910881</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="S11" t="n">
-        <v>3529.369545910881</v>
+        <v>3445.717672094728</v>
       </c>
       <c r="T11" t="n">
-        <v>3529.369545910881</v>
+        <v>3445.717672094728</v>
       </c>
       <c r="U11" t="n">
-        <v>3529.369545910881</v>
+        <v>3445.717672094728</v>
       </c>
       <c r="V11" t="n">
-        <v>3529.369545910881</v>
+        <v>3445.717672094728</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.369545910881</v>
+        <v>3445.717672094728</v>
       </c>
       <c r="X11" t="n">
-        <v>3110.227082490192</v>
+        <v>3026.575208674039</v>
       </c>
       <c r="Y11" t="n">
-        <v>2701.940958789845</v>
+        <v>2618.289084973692</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7591359095104</v>
+        <v>576.7591359095106</v>
       </c>
       <c r="C12" t="n">
-        <v>470.3026747461527</v>
+        <v>470.3026747461529</v>
       </c>
       <c r="D12" t="n">
-        <v>375.212385892706</v>
+        <v>375.2123858927062</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0919712196597</v>
+        <v>281.0919712196599</v>
       </c>
       <c r="F12" t="n">
-        <v>197.7081328358213</v>
+        <v>197.7081328358215</v>
       </c>
       <c r="G12" t="n">
-        <v>112.3230431020052</v>
+        <v>112.3230431020054</v>
       </c>
       <c r="H12" t="n">
-        <v>70.58739091821762</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="I12" t="n">
-        <v>96.65106407867522</v>
+        <v>96.65106407867542</v>
       </c>
       <c r="J12" t="n">
-        <v>421.2093890448875</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="K12" t="n">
-        <v>743.1354116897437</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="L12" t="n">
-        <v>743.1354116897437</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="M12" t="n">
-        <v>1616.654374302687</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="N12" t="n">
-        <v>1616.654374302687</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="O12" t="n">
-        <v>1616.654374302687</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="P12" t="n">
-        <v>1616.654374302687</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="Q12" t="n">
         <v>1616.654374302687</v>
@@ -5159,13 +5159,13 @@
         <v>1164.739006237979</v>
       </c>
       <c r="W12" t="n">
-        <v>979.4162519711729</v>
+        <v>979.4162519711731</v>
       </c>
       <c r="X12" t="n">
-        <v>824.5488162100528</v>
+        <v>824.548816210053</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0630369892735</v>
+        <v>698.0630369892738</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>884.2785482665306</v>
+        <v>921.0834279951491</v>
       </c>
       <c r="C13" t="n">
-        <v>711.7168367497555</v>
+        <v>748.5217164783741</v>
       </c>
       <c r="D13" t="n">
-        <v>545.8388439512782</v>
+        <v>582.6437236798968</v>
       </c>
       <c r="E13" t="n">
-        <v>376.0808402020155</v>
+        <v>412.885719930634</v>
       </c>
       <c r="F13" t="n">
-        <v>376.0808402020155</v>
+        <v>236.1786658923901</v>
       </c>
       <c r="G13" t="n">
-        <v>210.4895652278431</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="H13" t="n">
-        <v>70.58739091821762</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="I13" t="n">
-        <v>70.58739091821762</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1670760829075</v>
+        <v>157.1670760829077</v>
       </c>
       <c r="K13" t="n">
-        <v>431.925530654043</v>
+        <v>431.9255306540433</v>
       </c>
       <c r="L13" t="n">
-        <v>850.135412422004</v>
+        <v>850.1354124220043</v>
       </c>
       <c r="M13" t="n">
         <v>1309.619279602917</v>
@@ -5214,37 +5214,37 @@
         <v>1751.878082760562</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.547331986343</v>
+        <v>2171.547331986344</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.054225956685</v>
+        <v>2519.054225956686</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.247000821017</v>
+        <v>2687.247000821018</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.247000821017</v>
+        <v>2687.247000821018</v>
       </c>
       <c r="S13" t="n">
-        <v>2632.202952049714</v>
+        <v>2669.007831778333</v>
       </c>
       <c r="T13" t="n">
-        <v>2386.32350562817</v>
+        <v>2423.128385356788</v>
       </c>
       <c r="U13" t="n">
-        <v>2107.890504881275</v>
+        <v>2144.695384609894</v>
       </c>
       <c r="V13" t="n">
-        <v>1820.934996751706</v>
+        <v>1857.739876480324</v>
       </c>
       <c r="W13" t="n">
-        <v>1548.908592337997</v>
+        <v>1585.713472066616</v>
       </c>
       <c r="X13" t="n">
-        <v>1303.51683767141</v>
+        <v>1340.321717400028</v>
       </c>
       <c r="Y13" t="n">
-        <v>1076.097166985518</v>
+        <v>1112.902046714136</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5287,43 +5287,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D16" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E16" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F16" t="n">
-        <v>190.9207894961043</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5527,31 +5527,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
@@ -5560,7 +5560,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,13 +5828,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
         <v>1107.588885023173</v>
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5998,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7186,16 +7186,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>238.0943787136899</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1072.444670671868</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2147.504636924727</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
         <v>391.8077842004234</v>
@@ -7648,52 +7648,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
+        <v>3569.079287993934</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4397.38916282733</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4943.887948785925</v>
+      </c>
+      <c r="R44" t="n">
         <v>5113.042013538981</v>
       </c>
-      <c r="P44" t="n">
-        <v>5113.042013538981</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5113.042013538981</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5113.04201353898</v>
-      </c>
       <c r="S44" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1041.416826573035</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>868.8551150562604</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>702.9771222577831</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>533.2191185085204</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>356.5120644702766</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7836,22 +7836,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2543.461783934675</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2265.02878318778</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1978.07327505821</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1706.046870644502</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.655115977914</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1233.235445292023</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8692,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>882.3423864777203</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>882.3423864777203</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>882.3423864777205</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>407.0409895968851</v>
+        <v>822.5944593834208</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>325.1778006513699</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>882.3423864777203</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8935,10 +8935,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9008,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>137.205594386778</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11068,7 +11068,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.71437778573898</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22603,19 +22603,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>369.0353499799957</v>
       </c>
     </row>
     <row r="3">
@@ -22713,19 +22713,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>65.48800580459427</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>236.8918211913812</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>331.4721536453982</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22944,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>30.81337269022714</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>114.1599680048245</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>335.2811375447956</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>165.6559125406461</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23080,16 +23080,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>302.1847129723377</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>219.3693578943462</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>103.1553467313937</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.63380825304883</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457073.1573044831</v>
+        <v>457073.157304483</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>546763.7583701836</v>
+        <v>546763.7583701847</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712060.0393142544</v>
+        <v>712060.0393142543</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712060.0393142543</v>
+        <v>712060.0393142544</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712060.0393142544</v>
+        <v>712060.0393142543</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>712060.0393142544</v>
+        <v>712060.0393142543</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>160640.833517505</v>
       </c>
       <c r="E2" t="n">
-        <v>192163.0804130543</v>
+        <v>192163.0804130546</v>
       </c>
       <c r="F2" t="n">
         <v>250257.3524652424</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>64142.66971118403</v>
+        <v>64142.66971118481</v>
       </c>
       <c r="F3" t="n">
-        <v>113440.8343649023</v>
+        <v>113440.8343649015</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53535.7925322894</v>
+        <v>53535.79253229006</v>
       </c>
       <c r="N3" t="n">
-        <v>96971.03661968691</v>
+        <v>96971.0366196863</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>26396.92784106698</v>
       </c>
       <c r="E4" t="n">
-        <v>31576.74705931972</v>
+        <v>31576.74705931979</v>
       </c>
       <c r="F4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
         <v>41122.95192991271</v>
@@ -26444,7 +26444,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
         <v>41122.95192991271</v>
@@ -26459,7 +26459,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
     </row>
     <row r="5">
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53646.41709784539</v>
+        <v>53646.41709784554</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163668.3174693646</v>
+        <v>-164163.2076979458</v>
       </c>
       <c r="C6" t="n">
-        <v>60031.38111468031</v>
+        <v>59536.49088609905</v>
       </c>
       <c r="D6" t="n">
-        <v>60031.38111468031</v>
+        <v>59536.49088609905</v>
       </c>
       <c r="E6" t="n">
-        <v>42797.24654470515</v>
+        <v>42468.26287873137</v>
       </c>
       <c r="F6" t="n">
-        <v>17975.32756463485</v>
+        <v>17952.10322525292</v>
       </c>
       <c r="G6" t="n">
-        <v>131416.1619295371</v>
+        <v>131392.9375901545</v>
       </c>
       <c r="H6" t="n">
-        <v>131416.1619295371</v>
+        <v>131392.9375901545</v>
       </c>
       <c r="I6" t="n">
-        <v>131416.1619295371</v>
+        <v>131392.9375901545</v>
       </c>
       <c r="J6" t="n">
-        <v>-43235.18678816906</v>
+        <v>-43258.41112755166</v>
       </c>
       <c r="K6" t="n">
-        <v>131416.1619295371</v>
+        <v>131392.9375901545</v>
       </c>
       <c r="L6" t="n">
-        <v>131416.1619295371</v>
+        <v>131392.9375901545</v>
       </c>
       <c r="M6" t="n">
-        <v>77880.36939724773</v>
+        <v>77857.1450578644</v>
       </c>
       <c r="N6" t="n">
-        <v>34445.12530985022</v>
+        <v>34421.90097046816</v>
       </c>
       <c r="O6" t="n">
-        <v>131416.1619295371</v>
+        <v>131392.9375901545</v>
       </c>
       <c r="P6" t="n">
-        <v>131416.1619295371</v>
+        <v>131392.9375901545</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>882.3423864777203</v>
+        <v>882.3423864777228</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>214.8271798698632</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="F4" t="n">
-        <v>395.918116907025</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>214.8271798698632</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="N4" t="n">
-        <v>395.918116907025</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>214.8271798698632</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="N4" t="n">
-        <v>395.918116907025</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35412,25 +35412,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>882.3423864777203</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>882.3423864777203</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>882.3423864777205</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>407.0409895968851</v>
+        <v>822.5944593834208</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>325.1778006513699</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>882.3423864777203</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35582,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35655,10 +35655,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35728,22 +35728,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35895,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35965,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37566,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>137.205594386778</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
